--- a/Experiment/Orders_LOC/PAR01_RUN02.xlsx
+++ b/Experiment/Orders_LOC/PAR01_RUN02.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_LOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E286C2-B9CB-4C04-907F-E8D9B03D2A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B74B4-2E03-4AC5-8C01-66322D12FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,30 +108,6 @@
     <t>place3.jpg</t>
   </si>
   <si>
-    <t>scramble_face8.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face1.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face7.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face2.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face6.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face3.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face5.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face4.jpg</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
@@ -183,30 +159,6 @@
     <t>place11.jpg</t>
   </si>
   <si>
-    <t>scramble_face9.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face10.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face11.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face12.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face13.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face14.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face15.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face16.jpg</t>
-  </si>
-  <si>
     <t>object9.jpg</t>
   </si>
   <si>
@@ -259,12 +211,60 @@
   </si>
   <si>
     <t>Filename_Right</t>
+  </si>
+  <si>
+    <t>ScrambledPlace1.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace7.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace2.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace6.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace12.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace16.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace15.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace5.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace10.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace9.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace11.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace3.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace14.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace8.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace4.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace13.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,15 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="5" width="27.88671875" customWidth="1"/>
   </cols>
@@ -594,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -648,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -668,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -708,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -808,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -848,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -868,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -908,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -928,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -948,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -968,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -988,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1008,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1028,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1048,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1068,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1088,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1108,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1128,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1148,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1168,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1188,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1208,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1228,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1248,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1268,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1288,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1368,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1408,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1428,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1468,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1548,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1568,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1602,16 +1603,16 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1622,16 +1623,16 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1642,16 +1643,16 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1662,16 +1663,16 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1682,16 +1683,16 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1702,16 +1703,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1722,16 +1723,16 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -1742,16 +1743,16 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1762,16 +1763,16 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1782,16 +1783,16 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1802,16 +1803,16 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1822,16 +1823,16 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1842,16 +1843,16 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -1862,16 +1863,16 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -1882,16 +1883,16 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1902,16 +1903,16 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1942,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1962,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1982,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -2002,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -2022,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -2042,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2062,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2082,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -2102,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -2122,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2142,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2162,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2182,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2202,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2222,10 +2223,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2242,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2282,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2322,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2382,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -2402,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -2422,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -2522,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2562,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -2582,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -2596,16 +2597,16 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -2616,16 +2617,16 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -2636,16 +2637,16 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -2656,16 +2657,16 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -2676,16 +2677,16 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -2696,16 +2697,16 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E107" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -2716,16 +2717,16 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -2736,16 +2737,16 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -2756,16 +2757,16 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -2776,16 +2777,16 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -2796,16 +2797,16 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -2816,16 +2817,16 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -2836,16 +2837,16 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
         <v>32</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>40</v>
-      </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -2856,16 +2857,16 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -2876,16 +2877,16 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -2896,16 +2897,16 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -2962,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -2982,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -3002,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -3022,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -3102,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E127" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -3142,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E129" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -3182,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E131" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -3202,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -3250,16 +3251,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -3270,16 +3271,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -3290,16 +3291,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -3310,16 +3311,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E138" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -3330,16 +3331,16 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -3350,16 +3351,16 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E140" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -3370,16 +3371,16 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -3390,16 +3391,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -3410,16 +3411,16 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -3430,16 +3431,16 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -3450,16 +3451,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -3470,16 +3471,16 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -3490,16 +3491,16 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -3510,16 +3511,16 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -3530,16 +3531,16 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -3550,16 +3551,16 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
         <v>32</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>40</v>
-      </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -3576,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E151" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -3596,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E152" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -3616,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E153" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -3696,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E157" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -3756,10 +3757,10 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -3776,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -3836,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E164" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -3876,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -3896,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
@@ -3976,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -3996,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -4016,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -4056,10 +4057,10 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -4076,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -4096,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -4156,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -4176,10 +4177,10 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -4236,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -4256,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E185" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -4276,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E186" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -4296,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -4316,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E188" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -4336,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -4356,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -4376,10 +4377,10 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E191" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -4396,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E192" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -4416,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E193" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -4436,10 +4437,10 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -4456,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -4476,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -4496,10 +4497,10 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -4516,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E198" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -4536,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -4570,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -4590,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E202" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -4610,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -4670,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E206" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -4730,10 +4731,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E209" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -4810,10 +4811,10 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E213" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -4830,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E214" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -4850,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E215" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -4884,16 +4885,16 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -4904,16 +4905,16 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E218" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -4924,16 +4925,16 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E219" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -4944,16 +4945,16 @@
         <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -4964,16 +4965,16 @@
         <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E221" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -4984,16 +4985,16 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E222" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -5004,16 +5005,16 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -5024,16 +5025,16 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -5044,16 +5045,16 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E225" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -5064,16 +5065,16 @@
         <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -5084,16 +5085,16 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -5104,16 +5105,16 @@
         <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E228" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -5124,16 +5125,16 @@
         <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E229" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -5144,16 +5145,16 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -5164,16 +5165,16 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
         <v>32</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>40</v>
-      </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -5184,16 +5185,16 @@
         <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E232" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -5210,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E233" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -5230,10 +5231,10 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E234" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -5250,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -5270,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -5290,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E237" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -5310,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E238" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -5330,10 +5331,10 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F239" t="b">
         <v>0</v>
@@ -5350,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -5370,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E241" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -5390,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E242" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -5410,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E243" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -5430,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E244" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -5450,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E245" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -5470,10 +5471,10 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E246" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -5490,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E247" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -5510,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E248" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -5530,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E249" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -5570,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -5590,10 +5591,10 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E252" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -5610,10 +5611,10 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F253" t="b">
         <v>1</v>
@@ -5670,10 +5671,10 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E256" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -5710,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E258" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -5730,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E259" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F259" t="b">
         <v>0</v>
@@ -5770,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E261" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -5790,10 +5791,10 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F262" t="b">
         <v>0</v>
